--- a/Src/Data/Tables/MapDefine.xlsx
+++ b/Src/Data/Tables/MapDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8615" tabRatio="599"/>
+    <workbookView windowWidth="22188" windowHeight="9060" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>类型</t>
   </si>
@@ -47,6 +47,9 @@
     <t>技能描述</t>
   </si>
   <si>
+    <t>地图背景音乐</t>
+  </si>
+  <si>
     <t>Integer</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Music</t>
+  </si>
+  <si>
     <t>布林镇</t>
   </si>
   <si>
@@ -95,6 +101,9 @@
     <t>buluzheng</t>
   </si>
   <si>
+    <t>bgm-town</t>
+  </si>
+  <si>
     <t>落日森林</t>
   </si>
   <si>
@@ -104,7 +113,13 @@
     <t>luorisenl</t>
   </si>
   <si>
+    <t>bgm-map01</t>
+  </si>
+  <si>
     <t>Map02</t>
+  </si>
+  <si>
+    <t>bgm-map02</t>
   </si>
   <si>
     <t>落日余晖</t>
@@ -144,6 +159,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <color theme="0"/>
@@ -151,8 +171,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -333,20 +361,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -372,7 +386,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -562,24 +576,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,28 +689,19 @@
   </borders>
   <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -723,152 +710,161 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -877,16 +873,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -953,7 +964,7 @@
     <cellStyle name="好 2" xfId="59"/>
     <cellStyle name="适中 2" xfId="60"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -1042,6 +1053,21 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
         <name val="微软雅黑"/>
         <scheme val="none"/>
         <sz val="9"/>
@@ -1064,9 +1090,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:I7" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:I7" etc:filterBottomFollowUsedRange="0"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:J7" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:J7" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="10">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="3" name="ID" dataDxfId="1"/>
     <tableColumn id="5" name="Name" dataDxfId="2"/>
@@ -1074,8 +1100,9 @@
     <tableColumn id="9" name="SubType" dataDxfId="4"/>
     <tableColumn id="6" name="PKMode" dataDxfId="5"/>
     <tableColumn id="2" name="Resource" dataDxfId="6"/>
-    <tableColumn id="7" name="MiniMap"/>
-    <tableColumn id="98" name="Description" dataDxfId="7"/>
+    <tableColumn id="7" name="MiniMap" dataDxfId="7"/>
+    <tableColumn id="98" name="Description" dataDxfId="8"/>
+    <tableColumn id="8" name="Music"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1368,10 +1395,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -1382,88 +1409,98 @@
     <col min="6" max="6" width="14.287037037037" style="2" customWidth="1"/>
     <col min="7" max="8" width="21.287037037037" style="2" customWidth="1"/>
     <col min="9" max="9" width="32.5740740740741" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="16.287037037037" style="4"/>
+    <col min="10" max="10" width="21.287037037037" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="16.287037037037" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="J1" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:10">
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="I3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:8">
+    <row r="4" s="1" customFormat="1" spans="1:10">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1471,25 +1508,28 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="6" t="b">
+        <v>21</v>
+      </c>
+      <c r="F4" s="7" t="b">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:8">
+    <row r="5" s="1" customFormat="1" spans="1:10">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1497,25 +1537,28 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="6" t="b">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="b">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:9">
+    <row r="6" s="1" customFormat="1" spans="1:10">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1523,26 +1566,29 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="6" t="b">
+        <v>21</v>
+      </c>
+      <c r="F6" s="7" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1550,24 +1596,27 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="6" t="b">
+        <v>21</v>
+      </c>
+      <c r="F7" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="7"/>
+      <c r="G7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="12" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Src/Data/Tables/MapDefine.xlsx
+++ b/Src/Data/Tables/MapDefine.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>类型</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>luoriyuhui</t>
+  </si>
+  <si>
+    <t>竞技场</t>
+  </si>
+  <si>
+    <t>Arena</t>
   </si>
 </sst>
 </file>
@@ -141,7 +147,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -159,27 +165,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color theme="0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -689,19 +677,31 @@
   </borders>
   <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -710,161 +710,149 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -873,31 +861,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -964,7 +937,7 @@
     <cellStyle name="好 2" xfId="59"/>
     <cellStyle name="适中 2" xfId="60"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -1079,6 +1052,21 @@
       </fill>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1089,9 +1077,16 @@
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:J7" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:J7" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:J8" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:J8" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="10">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="3" name="ID" dataDxfId="1"/>
@@ -1102,7 +1097,7 @@
     <tableColumn id="2" name="Resource" dataDxfId="6"/>
     <tableColumn id="7" name="MiniMap" dataDxfId="7"/>
     <tableColumn id="98" name="Description" dataDxfId="8"/>
-    <tableColumn id="8" name="Music"/>
+    <tableColumn id="8" name="Music" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1395,13 +1390,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="2" width="11" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.5740740740741" style="2" customWidth="1"/>
@@ -1409,33 +1404,33 @@
     <col min="6" max="6" width="14.287037037037" style="2" customWidth="1"/>
     <col min="7" max="8" width="21.287037037037" style="2" customWidth="1"/>
     <col min="9" max="9" width="32.5740740740741" style="3" customWidth="1"/>
-    <col min="10" max="10" width="21.287037037037" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="16.287037037037" style="5"/>
+    <col min="10" max="10" width="21.287037037037" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="16.287037037037" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1464,39 +1459,39 @@
       <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1516,7 +1511,7 @@
       <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="7" t="b">
+      <c r="F4" s="6" t="b">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -1525,7 +1520,7 @@
       <c r="H4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1545,7 +1540,7 @@
       <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="b">
+      <c r="F5" s="6" t="b">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1554,7 +1549,7 @@
       <c r="H5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1574,7 +1569,7 @@
       <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="7" t="b">
+      <c r="F6" s="6" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1583,8 +1578,8 @@
       <c r="H6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="11" t="s">
+      <c r="I6" s="7"/>
+      <c r="J6" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1604,18 +1599,41 @@
       <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="7" t="b">
+      <c r="F7" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="12" t="s">
+      <c r="I7" s="7"/>
+      <c r="J7" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Src/Data/Tables/MapDefine.xlsx
+++ b/Src/Data/Tables/MapDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>类型</t>
   </si>
@@ -122,7 +122,10 @@
     <t>bgm-map02</t>
   </si>
   <si>
-    <t>落日余晖</t>
+    <t>落日空间</t>
+  </si>
+  <si>
+    <t>Story</t>
   </si>
   <si>
     <t>Map03</t>
@@ -1075,13 +1078,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1393,7 +1389,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1594,7 +1590,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>21</v>
@@ -1603,10 +1599,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
@@ -1621,16 +1617,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>24</v>

--- a/Src/Data/Tables/MapDefine.xlsx
+++ b/Src/Data/Tables/MapDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>类型</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>luoriyuhui</t>
+  </si>
+  <si>
+    <t>bgm-map03</t>
   </si>
   <si>
     <t>竞技场</t>
@@ -1389,7 +1392,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1606,7 +1609,7 @@
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1617,16 +1620,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>24</v>
